--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00545061\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\HWG\00. Study\GitHub\YanaduProgramming\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6888868-B816-47FE-AF50-48A6D6C41C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046DE70-0165-4935-979D-9482B27A6250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
+    <sheet name="3강 변수" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,102 +35,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Sub Test1()</t>
   </si>
   <si>
-    <t xml:space="preserve">  If MsgBox("당신은 남자입니까?", vbYesNo) = vbYes Then</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  End If</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>End Sub</t>
   </si>
   <si>
-    <t xml:space="preserve">        MsgBox "저도 남자입니다."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        MsgBox "반갑습니다."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg box </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if 문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel VBA 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub Variant_test()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Dim lngt    As Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lngt = 10 + 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MsgBox "10+20의 결과는 " &amp; lngt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ingt = 10 - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MsgBox "10-20의 결과는 " &amp; lngt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ingt = 10 * 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MsgBox "10*20의 결과는 " &amp; lngt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ingt = 10 / 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MsgBox "10/20의 결과는 " &amp; legt</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
+    <t xml:space="preserve">    If MsgBox("당신은 부자 입니까?", vbYesNo) = vbYes Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "부럽네요."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If MsgBox("그럼 사랑하는 사람이 있나요?", vbYesNo) = vbYes Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox "그럼 당신은 부자 입니다."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox "믿은 소망 사랑 중에 제일은 사랑이라."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        End If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    End If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>Sub Varient_Test()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim lngT    As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = 10 + 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "10+20의 결과는 " &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = 10 - 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "10-20의 결과는 " &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = 10 * 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "10*20의 결과는 " &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = 10 / 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "10/20의 결과는 " &amp; lngT</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dim lngA    As Long</t>
   </si>
   <si>
-    <t xml:space="preserve">    Dim lngB    As Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Dim strA    As Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lngA = 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lngB = 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    strA = " 의 결과는 "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    lngt = lngA + lngB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    msgbox lnga &amp; "+" lngb &amp; &amp; stra &amp; lngt</t>
+    <t xml:space="preserve">    Dim lngb    As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim stra    As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngb = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stra = " 의 결과는 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = lngA + lngb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox lngA &amp; "+" &amp; lngb &amp; stra &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = lngA - lngb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox lngA &amp; "-" &amp; lngb &amp; stra &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngA = 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = lngA * lngb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox lngA &amp; "*" &amp; lngb &amp; stra &amp; lngT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngT = lngA / lngb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox lngA &amp; "/" &amp; lngb &amp; stra &amp; lngT</t>
   </si>
 </sst>
 </file>
@@ -494,228 +522,355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE852E-168C-4DAE-96E2-A5C301688085}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49776E58-B89B-42F9-A6BE-7C1502C59D07}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>5</v>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\HWG\00. Study\GitHub\YanaduProgramming\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046DE70-0165-4935-979D-9482B27A6250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A2800-577B-4B9D-89DB-E2E35A1EEAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
     <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
-    <sheet name="3강 변수" sheetId="2" r:id="rId2"/>
+    <sheet name="3강 반복문(변수사용)" sheetId="2" r:id="rId2"/>
+    <sheet name="4강" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -638,7 +639,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,4 +879,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7B3B4E-1720-4DC7-AC34-90E4C9DBBE66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\HWG\00. Study\GitHub\YanaduProgramming\AlexGauck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00545061\Documents\00. Gauck\CFLT(Cross Functional Learning Team)\YND\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5A2800-577B-4B9D-89DB-E2E35A1EEAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F9D02B-321C-48DC-9764-7F1853CEFCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
     <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Sub Test1()</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t xml:space="preserve">    MsgBox lngA &amp; "/" &amp; lngb &amp; stra &amp; lngT</t>
+  </si>
+  <si>
+    <t>Sub Variant_Test()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,7 +643,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +755,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">

--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00545061\Documents\00. Gauck\CFLT(Cross Functional Learning Team)\YND\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F9D02B-321C-48DC-9764-7F1853CEFCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868F981-ECB1-4BDC-A09D-8AE236551B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
     <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
     <sheet name="3강 반복문(변수사용)" sheetId="2" r:id="rId2"/>
-    <sheet name="4강" sheetId="3" r:id="rId3"/>
+    <sheet name="4강 반복문+분기문(FOR, IF)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Sub Test1()</t>
   </si>
@@ -162,6 +162,42 @@
   </si>
   <si>
     <t>Sub Variant_Test()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정_2</t>
+  </si>
+  <si>
+    <t>지정_3</t>
+  </si>
+  <si>
+    <t>지정_4</t>
+  </si>
+  <si>
+    <t>지정_5</t>
+  </si>
+  <si>
+    <t>지정_6</t>
+  </si>
+  <si>
+    <t>지정_7</t>
+  </si>
+  <si>
+    <t>지정_8</t>
+  </si>
+  <si>
+    <t>지정_9</t>
+  </si>
+  <si>
+    <t>1월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +678,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,15 +923,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7B3B4E-1720-4DC7-AC34-90E4C9DBBE66}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00545061\Documents\00. Gauck\CFLT(Cross Functional Learning Team)\YND\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868F981-ECB1-4BDC-A09D-8AE236551B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80ED67-9D0F-4EB2-A29E-B6BCA46A65AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
     <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
     <sheet name="3강 반복문(변수사용)" sheetId="2" r:id="rId2"/>
     <sheet name="4강 반복문+분기문(FOR, IF)" sheetId="3" r:id="rId3"/>
+    <sheet name="4강 반복문+분기문(FOR, IF) (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="4강 반복문+분기문(FOR, IF) (3)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Sub Test1()</t>
   </si>
@@ -199,13 +201,140 @@
   <si>
     <t>1월</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저조</t>
+  </si>
+  <si>
+    <t>Sub Test_1()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim i As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 3 To 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If Range("C" &amp; i) &lt; 500 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Range("C" &amp; i).Font.Color = 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Range("D" &amp; i) = "저조"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            End If</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>6월</t>
+  </si>
+  <si>
+    <t>7월</t>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>지정_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 2 To 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If Cells(3, i) &lt; 500 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cells(3, i).Font.Color = 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cells(4, i) = "저조"</t>
+  </si>
+  <si>
+    <t>타원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sh  As Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For Each sh In ActiveSheet.Shapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If sh.Name = "타원" Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ElseIf sh.Name = "사각형" Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ElseIf sh.Name = "삼각형" Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If sh.Name = Range("F3") Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            sh.Fill.ForeColor.RGB = Range("G3").Interior.Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ElseIf sh.Name = Range("F4") Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            sh.Fill.ForeColor.RGB = Range("G4").Interior.Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ElseIf sh.Name = Range("F5") Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            sh.Fill.ForeColor.RGB = Range("G5").Interior.Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Next</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,21 +350,142 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -244,8 +494,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,6 +558,210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1390650"/>
+          <a:ext cx="1076325" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="100000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>타원</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="1343025"/>
+          <a:ext cx="1009650" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="이등변 삼각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="1133475"/>
+          <a:ext cx="1238250" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,7 +1178,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,97 +1422,698 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7B3B4E-1720-4DC7-AC34-90E4C9DBBE66}">
-  <dimension ref="B2:C11"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>830</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>949</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>749</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>726</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>645</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>772</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>706</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>385</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B6926E-E7BF-4556-A817-D6BF6BA60389}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>830</v>
+      </c>
+      <c r="D3" s="1">
+        <v>478</v>
+      </c>
+      <c r="E3">
+        <v>670</v>
+      </c>
+      <c r="F3">
+        <v>626</v>
+      </c>
+      <c r="G3">
+        <v>740</v>
+      </c>
+      <c r="H3">
+        <v>865</v>
+      </c>
+      <c r="I3" s="1">
+        <v>436</v>
+      </c>
+      <c r="J3" s="1">
+        <v>144</v>
+      </c>
+      <c r="K3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5666E8-F660-46C0-9220-73D136C66F64}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B3:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/AlexGauck/VBA 강의 실습.xlsx
+++ b/AlexGauck/VBA 강의 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00545061\Documents\00. Gauck\CFLT(Cross Functional Learning Team)\YND\AlexGauck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80ED67-9D0F-4EB2-A29E-B6BCA46A65AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B639D0-056C-414A-81A2-412E94553B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{CE641C05-90B3-4B75-9897-9AA1E65E8296}"/>
   </bookViews>
   <sheets>
     <sheet name="2강 If문" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="4강 반복문+분기문(FOR, IF)" sheetId="3" r:id="rId3"/>
     <sheet name="4강 반복문+분기문(FOR, IF) (2)" sheetId="4" r:id="rId4"/>
     <sheet name="4강 반복문+분기문(FOR, IF) (3)" sheetId="5" r:id="rId5"/>
+    <sheet name="5강 자동화" sheetId="6" r:id="rId6"/>
+    <sheet name="5강 자동화 (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="5강 자동화 (3)" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="129">
   <si>
     <t>Sub Test1()</t>
   </si>
@@ -328,13 +331,124 @@
   </si>
   <si>
     <t xml:space="preserve">    Next</t>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동2</t>
+  </si>
+  <si>
+    <t>홍길동3</t>
+  </si>
+  <si>
+    <t>홍길동4</t>
+  </si>
+  <si>
+    <t>홍길동5</t>
+  </si>
+  <si>
+    <t>홍길동6</t>
+  </si>
+  <si>
+    <t>홍길동7</t>
+  </si>
+  <si>
+    <t>홍길동8</t>
+  </si>
+  <si>
+    <t>홍길동9</t>
+  </si>
+  <si>
+    <t>홍길동10</t>
+  </si>
+  <si>
+    <t>홍길동11</t>
+  </si>
+  <si>
+    <t>홍길동12</t>
+  </si>
+  <si>
+    <t>홍길동13</t>
+  </si>
+  <si>
+    <t>Sub test01()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 2 To 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If Cells(i, 2) &lt;= 70 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cells(i, 2).Font.ColorIndex = 3</t>
+  </si>
+  <si>
+    <t>Next i</t>
+  </si>
+  <si>
+    <t>홍길동14</t>
+  </si>
+  <si>
+    <t>홍길동15</t>
+  </si>
+  <si>
+    <t>홍길동16</t>
+  </si>
+  <si>
+    <t>홍길동17</t>
+  </si>
+  <si>
+    <t>홍길동18</t>
+  </si>
+  <si>
+    <t>홍길동19</t>
+  </si>
+  <si>
+    <t>홍길동20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim i          As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim lngR       As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngR = Range("B10000").End(xlUp).Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 2 To lngR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim lngc       As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lngc = Range("iv2").End(xlToLeft).Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For i = 2 To lngc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If Cells(2, i) &lt;= 70 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cells(2, i).Font.ColorIndex = 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +467,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -494,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +663,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1950,8 +2075,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,4 +2241,616 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF29D5-A1E5-481B-80C6-89B6E164D6C5}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D93BA-8239-4E63-9FB6-862E3BEC8E79}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EFAAF9-B711-475B-A185-E55CC72D0B00}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="16">
+        <v>70</v>
+      </c>
+      <c r="C2" s="16">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="16">
+        <v>60</v>
+      </c>
+      <c r="F2" s="16">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="16">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>